--- a/biology/Botanique/Plectocomia_himalayana/Plectocomia_himalayana.xlsx
+++ b/biology/Botanique/Plectocomia_himalayana/Plectocomia_himalayana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Plectocomia himalayana  est une espèce de plante à fleurs de la famille des Arecaceae (Palmiers). La première description scientifique de cette espèce a été faite par William Griffith  botaniste, médecin et naturaliste Britannique, en 1845.
@@ -512,10 +524,12 @@
           <t>Description, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une espèce de rotin dominante dans les forêts des collines moyennes et supérieures (1500 - 2500 m d'altitude) de l'Himalaya oriental. L’aire de répartition naturelle de ce palmier-liane s’étend du Népal au Yunnan (sud-ouest de la  Chine). C’est un bon grimpeur qui pousse principalement dans le biome subtropical[2].
-Ce palmier à port lianescent pousse jusqu'au sommet d'arbres de 20 à 30 m de haut, pouvant être recouverts de neige et subissant des gelées chaque année. Provenant du nord-est de l'Inde, c'est un palmier intéressant pour des essais de plantation en métropole[3]. Ce rotin de l'Himalaya a des feuilles élégamment arquées vert clair, chacune équipée d'une longue cirrhe qui lui sert de grappin pour grimper, des folioles ovales et des stipes assez fins et cespiteux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une espèce de rotin dominante dans les forêts des collines moyennes et supérieures (1500 - 2500 m d'altitude) de l'Himalaya oriental. L’aire de répartition naturelle de ce palmier-liane s’étend du Népal au Yunnan (sud-ouest de la  Chine). C’est un bon grimpeur qui pousse principalement dans le biome subtropical.
+Ce palmier à port lianescent pousse jusqu'au sommet d'arbres de 20 à 30 m de haut, pouvant être recouverts de neige et subissant des gelées chaque année. Provenant du nord-est de l'Inde, c'est un palmier intéressant pour des essais de plantation en métropole. Ce rotin de l'Himalaya a des feuilles élégamment arquées vert clair, chacune équipée d'une longue cirrhe qui lui sert de grappin pour grimper, des folioles ovales et des stipes assez fins et cespiteux.
 </t>
         </is>
       </c>
